--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
@@ -513,41 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1380</v>
+        <v>955</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +556,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>45294</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L3" t="n">
         <v>1380</v>
@@ -604,7 +604,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>45294</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L4" t="n">
         <v>1380</v>
@@ -652,7 +652,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -666,18 +666,18 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>45294</v>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
         <v>1380</v>
@@ -714,18 +714,18 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H6" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>45294</v>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" t="n">
         <v>1380</v>
@@ -753,16 +753,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -770,24 +770,24 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>1380</v>
+        <v>955</v>
       </c>
     </row>
     <row r="8">
@@ -801,16 +801,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -818,24 +818,24 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>1380</v>
+        <v>955</v>
       </c>
     </row>
     <row r="9">
@@ -849,41 +849,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="H9" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>1380</v>
+        <v>955</v>
       </c>
     </row>
     <row r="10">
@@ -906,15 +906,15 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H10" t="n">
         <v>11</v>
@@ -931,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="L10" t="n">
-        <v>934</v>
+        <v>955</v>
       </c>
     </row>
     <row r="11">
@@ -940,21 +940,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -962,24 +962,24 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L11" t="n">
-        <v>934</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="12">
@@ -988,21 +988,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1010,24 +1010,24 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>934</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="13">
@@ -1036,46 +1036,46 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="H13" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L13" t="n">
-        <v>934</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="14">
@@ -1089,16 +1089,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1106,24 +1106,24 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L14" t="n">
-        <v>934</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="15">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45294</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="16">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1388,43 +1388,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L20" t="n">
+        <v>1589</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1438,11 +1436,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1456,11 +1454,11 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1474,7 +1472,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1488,11 +1486,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1506,11 +1504,11 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1524,7 +1522,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1538,15 +1536,15 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1556,18 +1554,20 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>45292</v>
+        <v>45297</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
-      <c r="L23" t="n">
-        <v>934</v>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1586,36 +1586,36 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1590</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="25">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1684,11 +1684,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1734,11 +1734,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1784,11 +1784,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1806,14 +1806,14 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1380</v>
+        <v>955</v>
       </c>
     </row>
   </sheetData>
@@ -1878,24 +1878,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1980,15 +1980,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2011,15 +2011,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2033,16 +2033,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2064,16 +2064,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2095,24 +2095,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2135,15 +2135,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2157,16 +2157,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2188,16 +2188,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2219,24 +2219,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2250,16 +2250,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2441,19 +2441,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2472,11 +2472,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2503,11 +2503,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2534,15 +2534,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2565,19 +2565,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2596,11 +2596,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2627,11 +2627,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2658,11 +2658,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2689,11 +2689,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2783,19 +2783,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D2" t="n">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -2824,14 +2824,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -2876,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="H4" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -2912,16 +2912,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="H5" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -2932,14 +2932,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2948,34 +2948,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D7" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2984,16 +2984,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>260</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,18 +522,18 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45294</v>
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>955</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3">
@@ -561,16 +561,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -578,24 +578,24 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>1380</v>
+        <v>933</v>
       </c>
     </row>
     <row r="4">
@@ -609,16 +609,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -626,24 +626,24 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L4" t="n">
-        <v>1380</v>
+        <v>933</v>
       </c>
     </row>
     <row r="5">
@@ -657,41 +657,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L5" t="n">
-        <v>1380</v>
+        <v>933</v>
       </c>
     </row>
     <row r="6">
@@ -700,7 +700,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -714,18 +714,18 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H6" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>45294</v>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="L6" t="n">
-        <v>1380</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="7">
@@ -748,21 +748,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -770,24 +770,24 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>955</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="8">
@@ -796,21 +796,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -818,24 +818,24 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
-        <v>955</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="9">
@@ -844,46 +844,46 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L9" t="n">
-        <v>955</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="10">
@@ -897,41 +897,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H10" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L10" t="n">
-        <v>955</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="11">
@@ -940,7 +940,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45294</v>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L11" t="n">
-        <v>1380</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="12">
@@ -988,7 +988,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1010,10 +1010,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>45294</v>
@@ -1024,10 +1024,10 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L12" t="n">
-        <v>1380</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="13">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1050,18 +1050,18 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45294</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="L13" t="n">
-        <v>1380</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="14">
@@ -1089,16 +1089,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1106,24 +1106,24 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H14" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1380</v>
+        <v>933</v>
       </c>
     </row>
     <row r="15">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1589</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="16">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K16" t="n">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1240,11 +1240,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1290,11 +1290,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1340,11 +1340,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1362,19 +1362,19 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1380</v>
+        <v>933</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1388,41 +1388,43 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
-      <c r="L20" t="n">
-        <v>1589</v>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1440,7 +1442,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1454,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1472,7 +1474,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1490,7 +1492,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1504,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1522,7 +1524,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1540,21 +1542,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>45297</v>
+        <v>45292</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1564,10 +1566,8 @@
       <c r="K23" t="n">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L23" t="n">
+        <v>1388</v>
       </c>
     </row>
     <row r="24">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1586,36 +1586,36 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45292</v>
+        <v>45294</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1380</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="25">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1684,11 +1684,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1734,11 +1734,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1784,11 +1784,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1806,14 +1806,14 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>955</v>
+        <v>1388</v>
       </c>
     </row>
   </sheetData>
@@ -1887,15 +1887,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1909,16 +1909,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1940,16 +1940,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1971,24 +1971,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2011,15 +2011,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2033,16 +2033,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2064,16 +2064,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2095,24 +2095,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2126,24 +2126,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2166,15 +2166,15 @@
         </is>
       </c>
       <c r="D11" t="n">
+        <v>43</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
         <v>29</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>16</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2197,15 +2197,15 @@
         </is>
       </c>
       <c r="D12" t="n">
+        <v>36</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
         <v>24</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>14</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2228,15 +2228,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2250,16 +2250,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -2317,11 +2317,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -2379,11 +2379,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -2410,11 +2410,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2441,19 +2441,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2538,15 +2538,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2565,19 +2565,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2596,11 +2596,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2627,11 +2627,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2658,11 +2658,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2689,11 +2689,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2795,7 +2795,7 @@
         <v>45294</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2804,34 +2804,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D3" t="n">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>227</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -2860,14 +2860,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2876,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
@@ -2896,14 +2896,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2912,34 +2912,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D6" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2948,34 +2948,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>98</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2984,16 +2984,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,7 +533,7 @@
         <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45294</v>
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>933</v>
+        <v>945</v>
       </c>
     </row>
     <row r="3">
@@ -581,7 +581,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>45294</v>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>933</v>
+        <v>945</v>
       </c>
     </row>
     <row r="4">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>45294</v>
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>933</v>
+        <v>945</v>
       </c>
     </row>
     <row r="5">
@@ -666,18 +666,18 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>45294</v>
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>933</v>
+        <v>945</v>
       </c>
     </row>
     <row r="6">
@@ -700,21 +700,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -722,24 +722,24 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>1388</v>
+        <v>945</v>
       </c>
     </row>
     <row r="7">
@@ -748,46 +748,46 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>1388</v>
+        <v>945</v>
       </c>
     </row>
     <row r="8">
@@ -801,41 +801,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1388</v>
+        <v>945</v>
       </c>
     </row>
     <row r="9">
@@ -844,7 +844,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -858,18 +858,18 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H9" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>45294</v>
@@ -880,10 +880,10 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="10">
@@ -917,7 +917,7 @@
         <v>43</v>
       </c>
       <c r="H10" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>45294</v>
@@ -928,10 +928,10 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="11">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45294</v>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="12">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1010,10 +1010,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H12" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>45294</v>
@@ -1024,10 +1024,10 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="13">
@@ -1050,18 +1050,18 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H13" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45294</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="14">
@@ -1084,21 +1084,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1106,24 +1106,24 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L14" t="n">
-        <v>933</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="15">
@@ -1132,196 +1132,190 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>1639</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="19">
@@ -1330,60 +1324,60 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>45292</v>
+        <v>45294</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L19" t="n">
-        <v>933</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1392,21 +1386,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1414,26 +1408,24 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1442,21 +1434,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1464,26 +1456,24 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1492,21 +1482,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>50</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1514,12 +1504,10 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="23">
@@ -1538,45 +1526,45 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>45292</v>
+        <v>45294</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>1388</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1586,45 +1574,47 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
-      <c r="L24" t="n">
-        <v>1639</v>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1634,11 +1624,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1646,17 +1636,17 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1670,11 +1660,11 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1684,11 +1674,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1696,17 +1686,17 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1720,11 +1710,11 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1734,11 +1724,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1746,17 +1736,17 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1770,50 +1760,794 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45294</v>
+        <v>45299</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>36</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>50</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>50</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>50</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>36</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>50</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>36</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>50</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>29</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>35</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>41</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>50</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>66</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>75</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>MAT_B</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>34</v>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>80</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>80</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>23</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>40</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>19</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>40</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>22</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>40</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>22</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>40</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>29</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>40</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>29</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>40</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>40</v>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>net demand for safety</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G43" t="n">
         <v>40</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2" t="n">
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1388</v>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1389</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +2561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1895,7 +2629,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1926,7 +2660,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1949,7 +2683,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1957,7 +2691,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1980,15 +2714,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2002,16 +2736,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2019,7 +2753,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2033,24 +2767,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2064,24 +2798,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2104,15 +2838,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2143,7 +2877,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2166,7 +2900,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2197,7 +2931,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2205,7 +2939,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2228,15 +2962,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2250,16 +2984,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2267,7 +3001,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2281,24 +3015,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -2308,28 +3042,28 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -2339,28 +3073,28 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -2370,28 +3104,28 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -2405,24 +3139,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -2432,11 +3166,11 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2445,15 +3179,15 @@
         </is>
       </c>
       <c r="D20" t="n">
+        <v>36</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
         <v>29</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>50</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -2463,11 +3197,11 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2476,15 +3210,15 @@
         </is>
       </c>
       <c r="D21" t="n">
+        <v>36</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
         <v>29</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>50</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2494,11 +3228,11 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2507,15 +3241,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2534,19 +3268,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2556,7 +3290,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2565,19 +3299,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2587,7 +3321,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2596,11 +3330,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2608,7 +3342,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2618,7 +3352,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2627,11 +3361,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2639,7 +3373,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2649,7 +3383,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2658,11 +3392,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2670,7 +3404,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2680,7 +3414,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45294</v>
+        <v>45299</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2689,21 +3423,486 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>50</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>50</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>net demand for safety</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="F29" t="n">
+        <v>50</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>36</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>50</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>36</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>50</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>29</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>50</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>35</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>50</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>41</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>50</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>66</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>75</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>80</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>80</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>23</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
         <v>40</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>19</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>40</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>22</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>40</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>22</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>40</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>29</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>40</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>29</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>40</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>40</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>40</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -2783,19 +3982,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2804,16 +4003,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>52</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3">
@@ -2824,14 +4023,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2840,34 +4039,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D4" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2876,16 +4075,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>101</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -2927,7 +4126,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2948,34 +4147,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="H6" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D7" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2984,16 +4183,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>260</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,10 +493,15 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>leadtime</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>deployed_qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quota</t>
         </is>
@@ -513,16 +518,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -530,24 +535,27 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>945</v>
+        <v>7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="3">
@@ -561,16 +569,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -578,24 +586,27 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>945</v>
+        <v>7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="4">
@@ -609,16 +620,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -626,24 +637,27 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>945</v>
+        <v>6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="5">
@@ -657,16 +671,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -674,24 +688,27 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>945</v>
+        <v>7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="6">
@@ -705,16 +722,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -722,24 +739,27 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>945</v>
+        <v>9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="7">
@@ -753,16 +773,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -770,24 +790,27 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>945</v>
+        <v>14</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="8">
@@ -796,7 +819,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -810,18 +833,18 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>45294</v>
@@ -835,6 +858,9 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
         <v>945</v>
       </c>
     </row>
@@ -849,16 +875,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -866,24 +892,27 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1389</v>
+        <v>6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>945</v>
       </c>
     </row>
     <row r="10">
@@ -897,16 +926,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -914,24 +943,27 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1389</v>
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>945</v>
       </c>
     </row>
     <row r="11">
@@ -945,12 +977,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -965,21 +997,24 @@
         <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1389</v>
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>945</v>
       </c>
     </row>
     <row r="12">
@@ -993,16 +1028,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1010,7 +1045,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" t="n">
         <v>7</v>
@@ -1020,14 +1055,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>7</v>
       </c>
-      <c r="L12" t="n">
-        <v>1389</v>
+      <c r="M12" t="n">
+        <v>945</v>
       </c>
     </row>
     <row r="13">
@@ -1041,41 +1079,44 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1389</v>
+        <v>10</v>
+      </c>
+      <c r="M13" t="n">
+        <v>945</v>
       </c>
     </row>
     <row r="14">
@@ -1084,7 +1125,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1098,18 +1139,18 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H14" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45294</v>
@@ -1120,9 +1161,12 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" t="n">
         <v>1389</v>
       </c>
     </row>
@@ -1146,7 +1190,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1154,10 +1198,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45294</v>
@@ -1168,9 +1212,12 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
         <v>1389</v>
       </c>
     </row>
@@ -1194,7 +1241,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1202,10 +1249,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45294</v>
@@ -1216,9 +1263,12 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
         <v>1389</v>
       </c>
     </row>
@@ -1264,9 +1314,12 @@
         </is>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>6</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>1389</v>
       </c>
     </row>
@@ -1290,7 +1343,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1298,10 +1351,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>45294</v>
@@ -1312,9 +1365,12 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" t="n">
         <v>1389</v>
       </c>
     </row>
@@ -1360,9 +1416,12 @@
         </is>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>7</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>1389</v>
       </c>
     </row>
@@ -1408,9 +1467,12 @@
         </is>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>7</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>1389</v>
       </c>
     </row>
@@ -1434,18 +1496,18 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>45294</v>
@@ -1456,9 +1518,12 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" t="n">
         <v>1389</v>
       </c>
     </row>
@@ -1473,16 +1538,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1490,24 +1555,27 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1389</v>
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>945</v>
       </c>
     </row>
     <row r="23">
@@ -1552,9 +1620,12 @@
         </is>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>1</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>1652</v>
       </c>
     </row>
@@ -1574,11 +1645,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1596,13 +1667,16 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1624,11 +1698,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1646,13 +1720,16 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1674,11 +1751,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1696,13 +1773,16 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1724,11 +1804,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1746,13 +1826,16 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1774,11 +1857,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1796,13 +1879,16 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1824,11 +1910,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1836,7 +1922,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1846,14 +1932,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>945</v>
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="30">
@@ -1872,11 +1961,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1894,13 +1983,16 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1922,11 +2014,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1944,13 +2036,16 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1972,11 +2067,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1994,13 +2089,16 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2022,11 +2120,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2044,13 +2142,16 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2072,11 +2173,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2094,13 +2195,16 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2122,11 +2226,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2134,7 +2238,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2144,14 +2248,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
-        <v>1389</v>
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>945</v>
       </c>
     </row>
     <row r="36">
@@ -2199,6 +2306,9 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
         <v>1652</v>
       </c>
     </row>
@@ -2244,9 +2354,12 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2294,9 +2407,12 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2344,9 +2460,12 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2394,9 +2513,12 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2444,9 +2566,12 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2494,9 +2619,12 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2544,9 +2672,12 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
         <v>1389</v>
       </c>
     </row>
@@ -2612,24 +2743,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D2" t="n">
+        <v>43</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>36</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>30</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2643,24 +2774,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D3" t="n">
+        <v>43</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>36</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>30</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2674,16 +2805,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2691,7 +2822,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2705,24 +2836,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
         <v>35</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>30</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2736,16 +2867,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2753,7 +2884,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2767,16 +2898,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2784,7 +2915,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2807,15 +2938,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2829,16 +2960,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -2846,7 +2977,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2860,16 +2991,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -2877,7 +3008,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2891,12 +3022,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -2908,7 +3039,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2922,16 +3053,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2939,7 +3070,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2953,24 +3084,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D13" t="n">
+        <v>60</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
         <v>50</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>41</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2993,15 +3124,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3024,7 +3155,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3032,7 +3163,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3055,7 +3186,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3063,7 +3194,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3117,7 +3248,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3125,7 +3256,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3210,15 +3341,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3232,16 +3363,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -3299,11 +3430,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3330,11 +3461,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -3361,11 +3492,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3392,11 +3523,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -3423,11 +3554,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -3454,11 +3585,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3466,7 +3597,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -3485,11 +3616,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3516,11 +3647,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3547,11 +3678,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3578,11 +3709,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3609,11 +3740,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3640,11 +3771,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3652,7 +3783,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3987,14 +4118,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D2" t="n">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4003,16 +4134,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>258</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -4023,14 +4154,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D3" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4039,16 +4170,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -4059,14 +4190,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4075,34 +4206,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4111,16 +4242,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -4131,14 +4262,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4147,34 +4278,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4183,16 +4314,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45294</v>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>1389</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,10 +586,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>45294</v>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1389</v>
@@ -615,7 +615,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H4" t="n">
         <v>6</v>
@@ -666,7 +666,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>45294</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>1389</v>
@@ -717,7 +717,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>45294</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
         <v>1389</v>
@@ -768,7 +768,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -782,18 +782,18 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>45294</v>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
         <v>1389</v>
@@ -819,17 +819,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -844,24 +844,24 @@
         <v>36</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>945</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="9">
@@ -870,49 +870,49 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M9" t="n">
-        <v>945</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="10">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>45294</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>945</v>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45294</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>945</v>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>45294</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>945</v>
@@ -1088,18 +1088,18 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45294</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>945</v>
@@ -1125,21 +1125,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1147,27 +1147,27 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>1389</v>
+        <v>945</v>
       </c>
     </row>
     <row r="15">
@@ -1176,49 +1176,49 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M15" t="n">
-        <v>1389</v>
+        <v>945</v>
       </c>
     </row>
     <row r="16">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45294</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
         <v>1389</v>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45294</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
         <v>1389</v>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1351,10 +1351,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>45294</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>1389</v>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H19" t="n">
         <v>7</v>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>45294</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M20" t="n">
         <v>1389</v>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>45294</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M21" t="n">
         <v>1389</v>
@@ -1645,11 +1645,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -1698,11 +1698,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1751,11 +1751,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1804,11 +1804,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1857,11 +1857,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -1910,11 +1910,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K29" t="n">
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1389</v>
+        <v>945</v>
       </c>
     </row>
     <row r="30">
@@ -1961,11 +1961,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -2014,11 +2014,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -2067,11 +2067,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -2120,11 +2120,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2173,11 +2173,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2226,11 +2226,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>945</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="36">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2907,15 +2907,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2929,12 +2929,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2960,24 +2960,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3000,15 +3000,15 @@
         </is>
       </c>
       <c r="D10" t="n">
+        <v>36</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
         <v>30</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>25</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3093,15 +3093,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3115,16 +3115,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3146,24 +3146,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3430,11 +3430,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3461,11 +3461,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -3492,11 +3492,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3523,11 +3523,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -3554,11 +3554,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -3585,11 +3585,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -3616,11 +3616,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3647,11 +3647,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3678,11 +3678,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3709,11 +3709,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3740,11 +3740,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3771,11 +3771,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -4113,19 +4113,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -4190,14 +4190,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4215,13 +4215,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4245,31 +4245,31 @@
         <v>96</v>
       </c>
       <c r="H5" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4287,25 +4287,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D7" t="n">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4314,16 +4314,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>258</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,21 +513,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -535,27 +535,27 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1389</v>
+        <v>946</v>
       </c>
     </row>
     <row r="3">
@@ -564,21 +564,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,27 +586,27 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1389</v>
+        <v>946</v>
       </c>
     </row>
     <row r="4">
@@ -615,21 +615,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,27 +637,27 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1389</v>
+        <v>946</v>
       </c>
     </row>
     <row r="5">
@@ -666,21 +666,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,27 +688,27 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1389</v>
+        <v>946</v>
       </c>
     </row>
     <row r="6">
@@ -717,21 +717,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -739,27 +739,27 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1389</v>
+        <v>946</v>
       </c>
     </row>
     <row r="7">
@@ -768,49 +768,49 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1389</v>
+        <v>946</v>
       </c>
     </row>
     <row r="8">
@@ -819,49 +819,49 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1389</v>
+        <v>946</v>
       </c>
     </row>
     <row r="9">
@@ -870,49 +870,49 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1389</v>
+        <v>946</v>
       </c>
     </row>
     <row r="10">
@@ -935,18 +935,18 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>45294</v>
@@ -960,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="11">
@@ -986,18 +986,18 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45294</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="M11" t="n">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="12">
@@ -1028,16 +1028,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1045,27 +1045,27 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>945</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="13">
@@ -1079,16 +1079,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1096,27 +1096,27 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>945</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="14">
@@ -1130,16 +1130,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1147,27 +1147,27 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>945</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="15">
@@ -1181,44 +1181,44 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>945</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45294</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1389</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="17">
@@ -1292,18 +1292,18 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45294</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1389</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="18">
@@ -1343,18 +1343,18 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>45294</v>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1389</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="19">
@@ -1394,18 +1394,18 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>45294</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1389</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="20">
@@ -1445,18 +1445,18 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>45294</v>
@@ -1470,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1389</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="21">
@@ -1496,18 +1496,18 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="H21" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>45294</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="M21" t="n">
-        <v>1389</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="22">
@@ -1538,44 +1538,44 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>945</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="23">
@@ -1584,29 +1584,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -1626,238 +1626,230 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>1652</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1391</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1391</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1391</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45298</v>
+        <v>45294</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>45298</v>
+        <v>45294</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1391</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45299</v>
+        <v>45294</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1865,33 +1857,31 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>45299</v>
+        <v>45294</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1391</v>
       </c>
     </row>
     <row r="29">
@@ -1900,17 +1890,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1918,45 +1908,45 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G29" t="n">
         <v>50</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>45292</v>
+        <v>45294</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>945</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1965,21 +1955,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1987,29 +1977,27 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M30" t="n">
+        <v>1391</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2018,21 +2006,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2040,29 +2028,27 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M31" t="n">
+        <v>1391</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2071,21 +2057,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2093,29 +2079,27 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M32" t="n">
+        <v>1391</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45298</v>
+        <v>45294</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2128,17 +2112,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45298</v>
+        <v>45294</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2146,68 +2130,64 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>35</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1391</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45299</v>
+        <v>45294</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45299</v>
+        <v>45294</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M34" t="n">
+        <v>946</v>
       </c>
     </row>
     <row r="35">
@@ -2226,48 +2206,48 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45292</v>
+        <v>45294</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>1389</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2277,48 +2257,50 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
-      <c r="M36" t="n">
-        <v>1652</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2328,11 +2310,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2340,21 +2322,21 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2367,11 +2349,11 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2381,11 +2363,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2393,21 +2375,21 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2420,11 +2402,11 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2434,11 +2416,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2446,21 +2428,21 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2473,11 +2455,11 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2487,11 +2469,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2499,21 +2481,21 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2526,11 +2508,11 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45299</v>
+        <v>45294</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2540,50 +2522,48 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45299</v>
+        <v>45292</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M41" t="n">
+        <v>946</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2593,33 +2573,33 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -2632,53 +2612,1211 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>5</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>50</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>50</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>50</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>43</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>50</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>5</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>43</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>50</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>5</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>35</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>50</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>5</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>42</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>50</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>5</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>50</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>50</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>5</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>79</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>100</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>5</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>8</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>50</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>5</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>8</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>50</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>5</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>8</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>50</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>5</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>MAT_B</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>80</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>80</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>27</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
         <v>40</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>7</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>23</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>40</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>7</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>26</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>40</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>7</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>26</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>40</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>7</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>34</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>40</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>7</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>34</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>40</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>7</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>47</v>
+      </c>
+      <c r="F62" t="inlineStr">
         <is>
           <t>net demand for safety</t>
         </is>
       </c>
-      <c r="G43" t="n">
+      <c r="G62" t="n">
+        <v>60</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>7</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>4</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
         <v>40</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>7</v>
       </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1389</v>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>40</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>7</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>4</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>40</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>7</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2692,7 +3830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2743,16 +3881,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2760,7 +3898,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2774,16 +3912,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2791,7 +3929,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2805,16 +3943,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2822,7 +3960,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2836,16 +3974,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2853,7 +3991,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2867,16 +4005,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2884,7 +4022,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2898,24 +4036,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2929,24 +4067,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2960,24 +4098,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3000,15 +4138,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3031,15 +4169,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3053,16 +4191,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3070,7 +4208,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3084,16 +4222,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3101,7 +4239,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3115,16 +4253,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3132,7 +4270,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3146,24 +4284,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3186,7 +4324,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3194,7 +4332,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3217,15 +4355,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -3248,15 +4386,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3279,15 +4417,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3310,15 +4448,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3341,15 +4479,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3363,24 +4501,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3394,24 +4532,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -3421,28 +4559,28 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -3452,28 +4590,28 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -3483,28 +4621,28 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -3514,28 +4652,28 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45298</v>
+        <v>45294</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -3545,28 +4683,28 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45299</v>
+        <v>45294</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -3580,24 +4718,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -3607,11 +4745,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3620,15 +4758,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -3638,11 +4776,11 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3651,15 +4789,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -3669,28 +4807,28 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -3700,7 +4838,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45298</v>
+        <v>45294</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -3709,19 +4847,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -3731,7 +4869,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -3740,11 +4878,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3762,7 +4900,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3771,19 +4909,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3793,7 +4931,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3802,19 +4940,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3824,7 +4962,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3833,11 +4971,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3845,7 +4983,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3855,7 +4993,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45296</v>
+        <v>45299</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3864,11 +5002,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3876,7 +5014,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3886,7 +5024,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3895,19 +5033,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3917,7 +5055,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3926,19 +5064,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3948,7 +5086,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45299</v>
+        <v>45296</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3957,19 +5095,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3979,7 +5117,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45300</v>
+        <v>45297</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3988,19 +5126,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -4019,21 +5157,641 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>50</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>50</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>43</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>50</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>35</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>50</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>42</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>50</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>50</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>50</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>79</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>100</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>8</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>50</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>8</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>50</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>8</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>50</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>80</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>80</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>27</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
         <v>40</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>23</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>40</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>26</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>40</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>26</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>40</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>34</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>40</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>34</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>40</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>47</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>net demand for safety</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="F60" t="n">
+        <v>60</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>4</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
         <v>40</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>4</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>40</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>4</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>40</v>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -4113,19 +5871,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D2" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4143,25 +5901,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4170,34 +5928,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D4" t="n">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4206,27 +5964,27 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>258</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -4242,34 +6000,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="H5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4287,13 +6045,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4317,13 +6075,13 @@
         <v>96</v>
       </c>
       <c r="H7" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,16 +518,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -535,27 +535,27 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>946</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="3">
@@ -569,16 +569,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,27 +586,27 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>946</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="4">
@@ -620,16 +620,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,27 +637,27 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>946</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="5">
@@ -671,16 +671,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,27 +688,27 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>946</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="6">
@@ -722,44 +722,44 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M6" t="n">
-        <v>946</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="7">
@@ -773,24 +773,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>946</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="8">
@@ -824,16 +824,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>946</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="9">
@@ -875,16 +875,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>946</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="10">
@@ -926,44 +926,44 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="M10" t="n">
-        <v>946</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="11">
@@ -972,49 +972,49 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H11" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>946</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="12">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>45294</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="13">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45294</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="14">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45294</v>
@@ -1164,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="15">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1190,18 +1190,18 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45294</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="16">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1241,15 +1241,15 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1292,18 +1292,18 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45294</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="18">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="19">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1394,18 +1394,18 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>45294</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="M19" t="n">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="20">
@@ -1436,44 +1436,44 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>1391</v>
+        <v>934</v>
       </c>
     </row>
     <row r="21">
@@ -1487,44 +1487,44 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H21" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>1391</v>
+        <v>934</v>
       </c>
     </row>
     <row r="22">
@@ -1533,21 +1533,21 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1555,27 +1555,27 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>1391</v>
+        <v>934</v>
       </c>
     </row>
     <row r="23">
@@ -1584,21 +1584,21 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>1391</v>
+        <v>934</v>
       </c>
     </row>
     <row r="24">
@@ -1635,49 +1635,49 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>1391</v>
+        <v>934</v>
       </c>
     </row>
     <row r="25">
@@ -1686,49 +1686,49 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1391</v>
+        <v>934</v>
       </c>
     </row>
     <row r="26">
@@ -1737,49 +1737,49 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1391</v>
+        <v>934</v>
       </c>
     </row>
     <row r="27">
@@ -1788,49 +1788,49 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1391</v>
+        <v>934</v>
       </c>
     </row>
     <row r="28">
@@ -1839,49 +1839,49 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="M28" t="n">
-        <v>1391</v>
+        <v>934</v>
       </c>
     </row>
     <row r="29">
@@ -1895,16 +1895,16 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1912,27 +1912,27 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1391</v>
+        <v>934</v>
       </c>
     </row>
     <row r="30">
@@ -1941,29 +1941,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -1983,21 +1983,21 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1391</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2006,49 +2006,51 @@
         </is>
       </c>
       <c r="E31" t="n">
+        <v>39</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>50</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>4</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>AO</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>4</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
-      <c r="M31" t="n">
-        <v>1391</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2057,49 +2059,51 @@
         </is>
       </c>
       <c r="E32" t="n">
+        <v>39</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>4</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>AO</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>4</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
-      <c r="M32" t="n">
-        <v>1391</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2108,21 +2112,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H33" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2130,64 +2134,68 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>35</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1391</v>
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45294</v>
+        <v>45298</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45294</v>
+        <v>45298</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
-      <c r="M34" t="n">
-        <v>946</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -2206,39 +2214,39 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1652</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="36">
@@ -2257,15 +2265,15 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -2279,11 +2287,11 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2310,15 +2318,15 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -2332,11 +2340,11 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2363,15 +2371,15 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -2385,11 +2393,11 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2402,7 +2410,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2420,7 +2428,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2434,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2442,7 +2450,7 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2455,7 +2463,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45299</v>
+        <v>45296</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2473,7 +2481,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2487,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45299</v>
+        <v>45296</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2495,7 +2503,7 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2508,7 +2516,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2526,21 +2534,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45292</v>
+        <v>45297</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2548,18 +2556,20 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
-      <c r="M41" t="n">
-        <v>946</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2577,11 +2587,11 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2591,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2599,7 +2609,7 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -2612,7 +2622,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2630,21 +2640,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2652,20 +2662,18 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M43" t="n">
+        <v>934</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2697,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2705,7 +2713,7 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2718,7 +2726,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2736,11 +2744,11 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2750,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2758,18 +2766,20 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
-      <c r="M45" t="n">
-        <v>946</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2783,15 +2793,15 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2801,15 +2811,15 @@
         <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2822,11 +2832,11 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2836,50 +2846,48 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M47" t="n">
+        <v>1650</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2893,7 +2901,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2901,13 +2909,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2915,7 +2923,7 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -2928,11 +2936,11 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2946,7 +2954,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2954,13 +2962,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2968,7 +2976,7 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -2981,11 +2989,11 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45299</v>
+        <v>45297</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2999,7 +3007,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3007,13 +3015,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>45299</v>
+        <v>45297</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3021,7 +3029,7 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3034,11 +3042,11 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45294</v>
+        <v>45298</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3052,21 +3060,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3074,22 +3082,24 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
-      <c r="M51" t="n">
-        <v>1391</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3103,21 +3113,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3125,24 +3135,22 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M52" t="n">
+        <v>1383</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3156,7 +3164,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3164,13 +3172,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3178,24 +3186,22 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M53" t="n">
+        <v>1383</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3209,7 +3215,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3217,13 +3223,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3231,7 +3237,7 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -3244,7 +3250,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3258,562 +3264,38 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
-      <c r="M55" t="n">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>27</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>40</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K56" t="n">
-        <v>7</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>23</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>40</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K57" t="n">
-        <v>7</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>26</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>40</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K58" t="n">
-        <v>7</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>26</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>40</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K59" t="n">
-        <v>7</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>34</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>40</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
-        <v>7</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>34</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>40</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K61" t="n">
-        <v>7</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>47</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>60</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K62" t="n">
-        <v>7</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>4</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>40</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
-        <v>7</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>4</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>40</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K64" t="n">
-        <v>7</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>4</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>40</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K65" t="n">
-        <v>7</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -3830,7 +3312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3881,16 +3363,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -3898,7 +3380,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3912,16 +3394,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -3929,7 +3411,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3943,16 +3425,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3960,7 +3442,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3974,16 +3456,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3991,7 +3473,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -4005,24 +3487,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -4036,24 +3518,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -4067,16 +3549,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -4084,7 +3566,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -4098,16 +3580,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -4115,7 +3597,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -4129,24 +3611,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -4160,24 +3642,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -4200,7 +3682,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -4208,7 +3690,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -4231,7 +3713,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -4239,7 +3721,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -4262,15 +3744,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -4293,15 +3775,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -4324,15 +3806,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -4355,15 +3837,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -4377,24 +3859,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -4408,24 +3890,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -4439,24 +3921,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -4470,16 +3952,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -4487,7 +3969,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -4501,24 +3983,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -4532,24 +4014,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -4563,24 +4045,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4594,24 +4076,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -4625,24 +4107,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4656,24 +4138,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -4683,11 +4165,11 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4696,15 +4178,15 @@
         </is>
       </c>
       <c r="D28" t="n">
+        <v>39</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
         <v>50</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>safety</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>47</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4714,11 +4196,11 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4727,15 +4209,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -4745,11 +4227,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4758,15 +4240,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -4776,11 +4258,11 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45294</v>
+        <v>45298</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4789,15 +4271,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -4811,24 +4293,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -4838,7 +4320,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4847,19 +4329,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -4869,7 +4351,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4878,15 +4360,15 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -4900,7 +4382,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -4909,15 +4391,15 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -4931,7 +4413,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -4944,7 +4426,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -4962,7 +4444,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -4975,7 +4457,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -4993,7 +4475,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45299</v>
+        <v>45297</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -5006,7 +4488,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -5024,7 +4506,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45294</v>
+        <v>45298</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -5037,15 +4519,15 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -5055,7 +4537,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -5068,15 +4550,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -5086,7 +4568,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -5117,7 +4599,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -5130,7 +4612,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -5148,7 +4630,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -5161,11 +4643,11 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -5179,7 +4661,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -5188,19 +4670,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -5210,7 +4692,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -5223,7 +4705,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -5231,7 +4713,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -5241,7 +4723,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -5254,7 +4736,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -5262,7 +4744,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -5272,7 +4754,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -5285,7 +4767,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -5293,7 +4775,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -5303,7 +4785,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -5316,7 +4798,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -5324,7 +4806,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -5347,7 +4829,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -5355,7 +4837,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -5365,7 +4847,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -5378,7 +4860,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -5386,7 +4868,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -5396,7 +4878,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -5409,7 +4891,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -5417,7 +4899,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -5427,7 +4909,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5440,7 +4922,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -5448,350 +4930,9 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G52" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>80</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>safety</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>80</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>27</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>40</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>23</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>40</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>26</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>40</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>26</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>40</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>34</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>40</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>34</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>40</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>47</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>60</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>4</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>40</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>4</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>40</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>4</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>40</v>
-      </c>
-      <c r="G63" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -5876,14 +5017,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -5892,22 +5033,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5919,7 +5060,7 @@
         <v>45294</v>
       </c>
       <c r="D3" t="n">
-        <v>258</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -5937,25 +5078,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>258</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -5964,16 +5105,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>52</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
@@ -5984,7 +5125,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -6000,16 +5141,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="H5" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -6020,32 +5161,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>90</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -6056,14 +5197,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -6072,16 +5213,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,7 +538,7 @@
         <v>43</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45294</v>
@@ -552,10 +552,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="3">
@@ -589,7 +589,7 @@
         <v>43</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>45294</v>
@@ -603,10 +603,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="4">
@@ -640,7 +640,7 @@
         <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>45294</v>
@@ -654,10 +654,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="5">
@@ -691,7 +691,7 @@
         <v>42</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>45294</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="6">
@@ -742,7 +742,7 @@
         <v>80</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>45294</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="7">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="8">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="9">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="10">
@@ -963,7 +963,7 @@
         <v>43</v>
       </c>
       <c r="M10" t="n">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="11">
@@ -977,44 +977,44 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1383</v>
+        <v>954</v>
       </c>
     </row>
     <row r="12">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>45294</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="13">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45294</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>28</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45294</v>
@@ -1164,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="15">
@@ -1190,18 +1190,18 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45294</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="16">
@@ -1241,18 +1241,18 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45294</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="17">
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="18">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="19">
@@ -1394,18 +1394,18 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>45294</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="20">
@@ -1431,49 +1431,49 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="M20" t="n">
-        <v>934</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="21">
@@ -1507,7 +1507,7 @@
         <v>36</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>45294</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>934</v>
+        <v>954</v>
       </c>
     </row>
     <row r="22">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>45294</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>934</v>
+        <v>954</v>
       </c>
     </row>
     <row r="23">
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>45294</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>934</v>
+        <v>954</v>
       </c>
     </row>
     <row r="24">
@@ -1649,18 +1649,18 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>45294</v>
@@ -1674,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>934</v>
+        <v>954</v>
       </c>
     </row>
     <row r="25">
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>934</v>
+        <v>954</v>
       </c>
     </row>
     <row r="26">
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>934</v>
+        <v>954</v>
       </c>
     </row>
     <row r="27">
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>934</v>
+        <v>954</v>
       </c>
     </row>
     <row r="28">
@@ -1853,18 +1853,18 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="H28" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>45294</v>
@@ -1878,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>934</v>
+        <v>954</v>
       </c>
     </row>
     <row r="29">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1904,18 +1904,18 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>45294</v>
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M29" t="n">
-        <v>934</v>
+        <v>954</v>
       </c>
     </row>
     <row r="30">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>45294</v>
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="M30" t="n">
-        <v>1650</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="31">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>45295</v>
@@ -2031,7 +2031,7 @@
         <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2059,7 +2059,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2067,10 +2067,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>45296</v>
@@ -2084,7 +2084,7 @@
         <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2120,10 +2120,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>45297</v>
@@ -2137,7 +2137,7 @@
         <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>45298</v>
@@ -2190,7 +2190,7 @@
         <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2218,7 +2218,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2246,16 +2246,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2277,13 +2277,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2296,19 +2296,17 @@
       <c r="L36" t="n">
         <v>0</v>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M36" t="n">
+        <v>1380</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2322,7 +2320,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2330,13 +2328,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2357,11 +2355,11 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2375,7 +2373,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2383,13 +2381,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2410,7 +2408,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2424,46 +2422,44 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>43</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1681</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2477,11 +2473,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2492,21 +2488,21 @@
         <v>50</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K40" t="n">
         <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2516,7 +2512,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2530,11 +2526,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2545,21 +2541,21 @@
         <v>50</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K41" t="n">
         <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -2569,7 +2565,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2583,7 +2579,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -2598,21 +2594,21 @@
         <v>50</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K42" t="n">
         <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -2622,7 +2618,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45294</v>
+        <v>45298</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2636,44 +2632,46 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K43" t="n">
         <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>934</v>
+        <v>21</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2687,29 +2685,29 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K44" t="n">
@@ -2718,15 +2716,13 @@
       <c r="L44" t="n">
         <v>0</v>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M44" t="n">
+        <v>1380</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2740,11 +2736,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2758,11 +2754,11 @@
         <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -2779,7 +2775,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2793,11 +2789,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2811,11 +2807,11 @@
         <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K46" t="n">
@@ -2832,11 +2828,11 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2846,39 +2842,41 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
-      <c r="M47" t="n">
-        <v>1650</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2887,7 +2885,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2897,11 +2895,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2909,24 +2907,24 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I48" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K48" t="n">
         <v>4</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -2940,7 +2938,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2950,11 +2948,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2962,24 +2960,24 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I49" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K49" t="n">
         <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -2993,7 +2991,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3003,11 +3001,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3015,24 +3013,24 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I50" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K50" t="n">
         <v>4</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -3046,7 +3044,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3056,11 +3054,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3068,24 +3066,24 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I51" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K51" t="n">
         <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3099,7 +3097,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3109,11 +3107,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3121,7 +3119,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3131,7 +3129,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -3141,16 +3139,16 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1383</v>
+        <v>954</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3160,11 +3158,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3172,17 +3170,17 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K53" t="n">
@@ -3191,17 +3189,19 @@
       <c r="L53" t="n">
         <v>0</v>
       </c>
-      <c r="M53" t="n">
-        <v>1383</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3211,11 +3211,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3223,17 +3223,17 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K54" t="n">
@@ -3250,11 +3250,11 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3264,11 +3264,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3276,17 +3276,17 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K55" t="n">
@@ -3299,6 +3299,57 @@
         <is>
           <t>inf</t>
         </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>8</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>50</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>4</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -3312,7 +3363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3380,7 +3431,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3411,7 +3462,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3442,7 +3493,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3473,7 +3524,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3504,7 +3555,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3558,7 +3609,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -3566,7 +3617,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3611,24 +3662,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3651,7 +3702,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -3659,7 +3710,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3682,7 +3733,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3690,7 +3741,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3721,7 +3772,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3744,15 +3795,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3775,15 +3826,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3859,24 +3910,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3907,7 +3958,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3930,7 +3981,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3938,7 +3989,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3961,7 +4012,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -3969,7 +4020,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3992,15 +4043,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -4023,15 +4074,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -4054,7 +4105,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -4062,7 +4113,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4116,15 +4167,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4138,24 +4189,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -4165,7 +4216,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -4174,19 +4225,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4196,7 +4247,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -4209,7 +4260,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -4217,7 +4268,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -4227,7 +4278,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4240,7 +4291,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -4248,7 +4299,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -4258,7 +4309,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -4271,7 +4322,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -4279,7 +4330,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -4289,7 +4340,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45294</v>
+        <v>45298</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4302,15 +4353,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -4320,7 +4371,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4333,15 +4384,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -4351,7 +4402,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4364,7 +4415,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -4372,7 +4423,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -4382,7 +4433,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -4395,7 +4446,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -4403,7 +4454,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -4413,7 +4464,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -4422,19 +4473,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -4444,7 +4495,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -4453,19 +4504,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -4475,7 +4526,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -4484,19 +4535,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D38" t="n">
+        <v>41</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
         <v>29</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>50</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -4506,7 +4557,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -4515,11 +4566,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4527,7 +4578,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -4537,7 +4588,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -4546,19 +4597,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -4568,7 +4619,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -4577,19 +4628,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -4599,7 +4650,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -4608,19 +4659,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -4630,7 +4681,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -4639,11 +4690,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4661,7 +4712,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -4670,19 +4721,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -4692,7 +4743,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -4705,15 +4756,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -4723,7 +4774,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -4732,11 +4783,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -4744,7 +4795,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -4754,7 +4805,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -4763,11 +4814,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4775,7 +4826,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -4785,7 +4836,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4794,11 +4845,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -4806,7 +4857,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -4816,7 +4867,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45294</v>
+        <v>45298</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4825,19 +4876,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -4856,19 +4907,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -4887,11 +4938,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -4899,7 +4950,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -4918,11 +4969,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -4930,9 +4981,71 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G52" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>50</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>50</v>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -5017,14 +5130,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -5033,34 +5146,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -5069,34 +5182,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D4" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -5105,16 +5218,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -5141,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="H5" t="n">
         <v>43</v>
@@ -5150,25 +5263,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5177,34 +5290,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>51</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -5222,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
@@ -513,49 +513,49 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1380</v>
+        <v>955</v>
       </c>
     </row>
     <row r="3">
@@ -569,16 +569,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,27 +586,27 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1380</v>
+        <v>955</v>
       </c>
     </row>
     <row r="4">
@@ -620,16 +620,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,27 +637,27 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1380</v>
+        <v>955</v>
       </c>
     </row>
     <row r="5">
@@ -671,16 +671,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,27 +688,27 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1380</v>
+        <v>955</v>
       </c>
     </row>
     <row r="6">
@@ -722,44 +722,44 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1380</v>
+        <v>955</v>
       </c>
     </row>
     <row r="7">
@@ -773,24 +773,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1380</v>
+        <v>955</v>
       </c>
     </row>
     <row r="8">
@@ -824,16 +824,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1380</v>
+        <v>955</v>
       </c>
     </row>
     <row r="9">
@@ -875,16 +875,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1380</v>
+        <v>955</v>
       </c>
     </row>
     <row r="10">
@@ -926,44 +926,44 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1380</v>
+        <v>955</v>
       </c>
     </row>
     <row r="11">
@@ -972,7 +972,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -990,14 +990,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>40</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45294</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M11" t="n">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="12">
@@ -1065,7 +1065,7 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="13">
@@ -1116,7 +1116,7 @@
         <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="14">
@@ -1167,7 +1167,7 @@
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="15">
@@ -1218,7 +1218,7 @@
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="16">
@@ -1269,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="17">
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="18">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="19">
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="20">
@@ -1473,7 +1473,7 @@
         <v>34</v>
       </c>
       <c r="M20" t="n">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="21">
@@ -1487,16 +1487,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1504,27 +1504,27 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>954</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="22">
@@ -1538,16 +1538,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1555,27 +1555,27 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>954</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="23">
@@ -1589,16 +1589,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1606,27 +1606,27 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>954</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="24">
@@ -1640,16 +1640,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1657,27 +1657,27 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>954</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="25">
@@ -1691,16 +1691,16 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1708,27 +1708,27 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>954</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="26">
@@ -1742,16 +1742,16 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>954</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="27">
@@ -1793,16 +1793,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>954</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="28">
@@ -1844,16 +1844,16 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>954</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="29">
@@ -1895,16 +1895,16 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1912,27 +1912,27 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H29" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M29" t="n">
-        <v>954</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="30">
@@ -1966,7 +1966,7 @@
         <v>80</v>
       </c>
       <c r="H30" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>45294</v>
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="31">
@@ -2017,7 +2017,7 @@
         <v>40</v>
       </c>
       <c r="H31" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>45295</v>
@@ -2031,7 +2031,7 @@
         <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>40</v>
       </c>
       <c r="H32" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>45296</v>
@@ -2084,7 +2084,7 @@
         <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>40</v>
       </c>
       <c r="H33" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>45297</v>
@@ -2137,7 +2137,7 @@
         <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>40</v>
       </c>
       <c r="H34" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>45298</v>
@@ -2190,7 +2190,7 @@
         <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="36">
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="37">
@@ -2437,7 +2437,7 @@
         <v>100</v>
       </c>
       <c r="H39" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>45294</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="40">
@@ -2473,11 +2473,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2488,21 +2488,21 @@
         <v>50</v>
       </c>
       <c r="H40" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K40" t="n">
         <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2526,11 +2526,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2541,21 +2541,21 @@
         <v>50</v>
       </c>
       <c r="H41" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K41" t="n">
         <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -2579,11 +2579,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2594,21 +2594,21 @@
         <v>50</v>
       </c>
       <c r="H42" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K42" t="n">
         <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -2632,11 +2632,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2647,21 +2647,21 @@
         <v>50</v>
       </c>
       <c r="H43" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K43" t="n">
         <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -2685,11 +2685,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K44" t="n">
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1380</v>
+        <v>955</v>
       </c>
     </row>
     <row r="45">
@@ -2736,11 +2736,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -2789,11 +2789,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K46" t="n">
@@ -2842,11 +2842,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -2881,7 +2881,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2899,21 +2899,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G48" t="n">
         <v>50</v>
       </c>
       <c r="H48" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2924,17 +2924,15 @@
         <v>4</v>
       </c>
       <c r="L48" t="n">
-        <v>21</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>955</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2948,11 +2946,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2963,21 +2961,21 @@
         <v>50</v>
       </c>
       <c r="H49" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K49" t="n">
         <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -2987,7 +2985,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3001,11 +2999,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3016,21 +3014,21 @@
         <v>50</v>
       </c>
       <c r="H50" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K50" t="n">
         <v>4</v>
       </c>
       <c r="L50" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -3040,7 +3038,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3054,11 +3052,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3069,21 +3067,21 @@
         <v>50</v>
       </c>
       <c r="H51" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K51" t="n">
         <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3093,7 +3091,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45294</v>
+        <v>45298</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3107,29 +3105,29 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -3138,13 +3136,15 @@
       <c r="L52" t="n">
         <v>0</v>
       </c>
-      <c r="M52" t="n">
-        <v>954</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3158,29 +3158,29 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K53" t="n">
@@ -3189,15 +3189,13 @@
       <c r="L53" t="n">
         <v>0</v>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M53" t="n">
+        <v>1381</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3211,11 +3209,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3229,11 +3227,11 @@
         <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K54" t="n">
@@ -3250,7 +3248,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3264,11 +3262,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3282,11 +3280,11 @@
         <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K55" t="n">
@@ -3303,7 +3301,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3317,7 +3315,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -3325,7 +3323,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -3335,11 +3333,11 @@
         <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K56" t="n">
@@ -3348,8 +3346,10 @@
       <c r="L56" t="n">
         <v>0</v>
       </c>
-      <c r="M56" t="n">
-        <v>954</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3414,24 +3414,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3445,16 +3445,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3476,16 +3476,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3507,16 +3507,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3538,24 +3538,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3569,24 +3569,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3600,16 +3600,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3631,16 +3631,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3671,15 +3671,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3693,24 +3693,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3857,15 +3857,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3941,24 +3941,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3972,16 +3972,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -4003,16 +4003,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -4034,12 +4034,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -4065,24 +4065,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -4096,24 +4096,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4127,16 +4127,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -4158,16 +4158,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4189,20 +4189,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4237,7 +4237,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -4535,11 +4535,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -4566,11 +4566,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -4597,11 +4597,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -4628,11 +4628,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -4659,11 +4659,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -4690,11 +4690,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4721,11 +4721,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -4752,11 +4752,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -4787,15 +4787,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -4814,11 +4814,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4845,11 +4845,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4876,11 +4876,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45294</v>
+        <v>45298</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4907,19 +4907,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4938,19 +4938,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4969,11 +4969,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -5000,11 +5000,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -5221,13 +5221,13 @@
         <v>70</v>
       </c>
       <c r="H4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -5257,13 +5257,13 @@
         <v>103</v>
       </c>
       <c r="H5" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -5281,7 +5281,7 @@
         <v>45294</v>
       </c>
       <c r="D6" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7">
@@ -5317,7 +5317,7 @@
         <v>45294</v>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -527,15 +527,15 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>955</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>955</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>955</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>955</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -731,15 +731,15 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>955</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -782,15 +782,15 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>955</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>955</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>955</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -935,15 +935,15 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>955</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -972,49 +972,49 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H11" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M11" t="n">
-        <v>955</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="12">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>45294</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M12" t="n">
-        <v>1381</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="13">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45294</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M13" t="n">
-        <v>1381</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="14">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45294</v>
@@ -1164,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M14" t="n">
-        <v>1381</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="15">
@@ -1190,18 +1190,18 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45294</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="M15" t="n">
-        <v>1381</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="16">
@@ -1241,18 +1241,18 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45294</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1381</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="17">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45294</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1381</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="18">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1351,10 +1351,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>45294</v>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>1381</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="19">
@@ -1394,18 +1394,18 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>45294</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M19" t="n">
-        <v>1381</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="20">
@@ -1436,44 +1436,44 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H20" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1381</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -1482,49 +1482,49 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1381</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>45294</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1381</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="23">
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>45294</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1381</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="24">
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>45294</v>
@@ -1674,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1381</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="25">
@@ -1700,18 +1700,18 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>45294</v>
@@ -1725,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1381</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="26">
@@ -1751,15 +1751,15 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1381</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="27">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1381</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="28">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1381</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="29">
@@ -1904,18 +1904,18 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="H29" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>45294</v>
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1381</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="30">
@@ -1941,54 +1941,54 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M30" t="n">
-        <v>1682</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2002,46 +2002,44 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M31" t="n">
+        <v>1790</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2059,7 +2057,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2073,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2094,7 +2092,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2112,7 +2110,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2126,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2147,7 +2145,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2165,7 +2163,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2179,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2200,7 +2198,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45294</v>
+        <v>45298</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2218,21 +2216,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2245,8 +2243,10 @@
       <c r="L35" t="n">
         <v>0</v>
       </c>
-      <c r="M35" t="n">
-        <v>1381</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2269,11 +2269,11 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2297,12 +2297,12 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1381</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2347,15 +2347,13 @@
       <c r="L37" t="n">
         <v>0</v>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M37" t="n">
+        <v>1349</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2373,7 +2371,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2387,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2408,11 +2406,11 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2422,39 +2420,41 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
-      <c r="M39" t="n">
-        <v>1682</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -2473,36 +2473,36 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G40" t="n">
         <v>50</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I40" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2526,36 +2526,36 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G41" t="n">
         <v>50</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I41" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -2579,36 +2579,36 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G42" t="n">
         <v>50</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -2632,36 +2632,36 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G43" t="n">
         <v>50</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45294</v>
+        <v>45299</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2685,44 +2685,46 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45292</v>
+        <v>45299</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>955</v>
+        <v>9</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45295</v>
+        <v>45300</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2736,36 +2738,36 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G45" t="n">
         <v>50</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45295</v>
+        <v>45300</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -2775,7 +2777,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2789,46 +2791,44 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>18</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1790</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2842,46 +2842,44 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G47" t="n">
         <v>50</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>50</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1790</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2899,21 +2897,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2924,15 +2922,17 @@
         <v>4</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>955</v>
+        <v>18</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2946,11 +2946,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2958,24 +2958,24 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K49" t="n">
         <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2999,11 +2999,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3011,24 +3011,24 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K50" t="n">
         <v>4</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3052,11 +3052,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3064,24 +3064,24 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K51" t="n">
         <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45298</v>
+        <v>45294</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3105,29 +3105,29 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>45298</v>
+        <v>45292</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -3136,15 +3136,13 @@
       <c r="L52" t="n">
         <v>0</v>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M52" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3158,29 +3156,29 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K53" t="n">
@@ -3189,13 +3187,15 @@
       <c r="L53" t="n">
         <v>0</v>
       </c>
-      <c r="M53" t="n">
-        <v>1381</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3209,11 +3209,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3227,11 +3227,11 @@
         <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K54" t="n">
@@ -3248,7 +3248,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3280,11 +3280,11 @@
         <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K55" t="n">
@@ -3301,7 +3301,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3315,29 +3315,29 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K56" t="n">
@@ -3346,10 +3346,481 @@
       <c r="L56" t="n">
         <v>0</v>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="M56" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>45</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>50</v>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>4</v>
+      </c>
+      <c r="L57" t="n">
+        <v>9</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>45</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>50</v>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>4</v>
+      </c>
+      <c r="L58" t="n">
+        <v>9</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>38</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>50</v>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>4</v>
+      </c>
+      <c r="L59" t="n">
+        <v>9</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>44</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>50</v>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>4</v>
+      </c>
+      <c r="L60" t="n">
+        <v>9</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>80</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>100</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>4</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>7</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>50</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>4</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>7</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>50</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>4</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>7</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>50</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>4</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>31</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>50</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>4</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1349</v>
       </c>
     </row>
   </sheetData>
@@ -3363,7 +3834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3423,15 +3894,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3454,7 +3925,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -3462,7 +3933,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3485,7 +3956,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3493,7 +3964,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3516,7 +3987,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3524,7 +3995,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3547,15 +4018,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3578,15 +4049,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3609,7 +4080,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -3617,7 +4088,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3640,7 +4111,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -3648,7 +4119,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3671,15 +4142,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3693,24 +4164,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3733,7 +4204,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3741,7 +4212,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3764,7 +4235,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3772,7 +4243,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3795,7 +4266,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3803,7 +4274,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3826,15 +4297,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3857,15 +4328,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3888,7 +4359,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -3896,7 +4367,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -3919,7 +4390,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3927,7 +4398,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3941,24 +4412,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3972,24 +4443,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -4012,7 +4483,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -4020,7 +4491,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -4043,7 +4514,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -4051,7 +4522,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -4074,7 +4545,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -4082,7 +4553,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -4105,15 +4576,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4136,15 +4607,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -4167,7 +4638,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -4175,7 +4646,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4198,7 +4669,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -4206,7 +4677,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -4220,24 +4691,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4247,11 +4718,11 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4260,15 +4731,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -4278,7 +4749,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4287,19 +4758,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -4309,7 +4780,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -4322,7 +4793,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -4340,7 +4811,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4353,7 +4824,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -4371,7 +4842,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4384,15 +4855,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -4402,7 +4873,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45294</v>
+        <v>45298</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4415,11 +4886,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -4433,7 +4904,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -4446,11 +4917,11 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -4464,7 +4935,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -4477,7 +4948,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -4495,7 +4966,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -4504,19 +4975,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -4526,7 +4997,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -4535,19 +5006,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -4557,7 +5028,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -4566,19 +5037,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -4588,7 +5059,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -4597,19 +5068,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -4619,7 +5090,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -4628,19 +5099,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -4650,7 +5121,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45294</v>
+        <v>45298</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -4659,19 +5130,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -4681,7 +5152,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -4690,19 +5161,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -4712,7 +5183,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45296</v>
+        <v>45300</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -4721,19 +5192,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -4743,7 +5214,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -4752,19 +5223,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -4774,7 +5245,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -4787,15 +5258,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -4805,7 +5276,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -4814,11 +5285,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4826,7 +5297,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -4836,7 +5307,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4845,11 +5316,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -4857,7 +5328,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -4867,7 +5338,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4876,11 +5347,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -4888,7 +5359,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -4898,7 +5369,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45298</v>
+        <v>45294</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4907,19 +5378,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -4929,7 +5400,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4938,19 +5409,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -4960,7 +5431,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4969,11 +5440,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -4991,7 +5462,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -5000,11 +5471,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -5022,30 +5493,309 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>106</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>125</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>45</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>41</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>45</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>41</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>45297</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>8</v>
-      </c>
-      <c r="E54" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>38</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>41</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>44</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>41</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>80</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>100</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>7</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>net demand for AO</t>
         </is>
       </c>
-      <c r="F54" t="n">
+      <c r="F60" t="n">
         <v>50</v>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>7</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>50</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>7</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>50</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>31</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>50</v>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -5125,7 +5875,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5137,7 +5887,7 @@
         <v>45294</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -5146,16 +5896,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5166,14 +5916,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -5182,16 +5932,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -5202,14 +5952,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -5218,22 +5968,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5254,34 +6004,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="H5" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>59</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D6" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5290,34 +6040,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>280</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D7" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -5335,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240103.xlsx
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>19</v>
       </c>
       <c r="H11" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45294</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M11" t="n">
-        <v>1349</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="12">
@@ -1048,7 +1048,7 @@
         <v>17</v>
       </c>
       <c r="H12" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>45294</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
-        <v>1349</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="13">
@@ -1099,7 +1099,7 @@
         <v>19</v>
       </c>
       <c r="H13" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45294</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M13" t="n">
-        <v>1349</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>19</v>
       </c>
       <c r="H14" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45294</v>
@@ -1164,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M14" t="n">
-        <v>1349</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="15">
@@ -1201,7 +1201,7 @@
         <v>50</v>
       </c>
       <c r="H15" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45294</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M15" t="n">
-        <v>1349</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="16">
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1349</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="17">
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1349</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="18">
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>1349</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="19">
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>45294</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M19" t="n">
-        <v>1349</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="20">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1349</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="23">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1349</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="24">
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1349</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="25">
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1349</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="26">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1349</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="27">
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1349</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="28">
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1349</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="29">
@@ -1904,7 +1904,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1349</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="30">
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>45294</v>
@@ -1980,19 +1980,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="M30" t="n">
-        <v>1349</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2006,21 +2006,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2033,17 +2033,19 @@
       <c r="L31" t="n">
         <v>0</v>
       </c>
-      <c r="M31" t="n">
-        <v>1790</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2053,33 +2055,33 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -2092,11 +2094,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2106,33 +2108,33 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -2145,11 +2147,11 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2159,33 +2161,33 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2198,11 +2200,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2212,33 +2214,33 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -2251,11 +2253,11 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45294</v>
+        <v>45300</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2265,39 +2267,41 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45292</v>
+        <v>45300</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
-      <c r="M36" t="n">
-        <v>1349</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -2306,7 +2310,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2316,19 +2320,19 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2338,26 +2342,26 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1349</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2367,50 +2371,48 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M38" t="n">
+        <v>1765</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2420,29 +2422,29 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K39" t="n">
@@ -2459,7 +2461,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2473,36 +2475,36 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H40" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2512,7 +2514,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2526,36 +2528,36 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H41" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -2565,7 +2567,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2579,36 +2581,36 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H42" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -2618,7 +2620,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45298</v>
+        <v>45294</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2632,46 +2634,44 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H43" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45298</v>
+        <v>45292</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>9</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2685,36 +2685,36 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G44" t="n">
         <v>50</v>
       </c>
       <c r="H44" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45300</v>
+        <v>45296</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2738,36 +2738,36 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G45" t="n">
         <v>50</v>
       </c>
       <c r="H45" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45300</v>
+        <v>45296</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2791,39 +2791,41 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H46" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>18</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1790</v>
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2842,39 +2844,39 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H47" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>1790</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
@@ -2893,11 +2895,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2905,24 +2907,24 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H48" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I48" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K48" t="n">
         <v>4</v>
       </c>
       <c r="L48" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -2946,11 +2948,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2958,24 +2960,24 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H49" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K49" t="n">
         <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -2999,11 +3001,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3011,24 +3013,24 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H50" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I50" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K50" t="n">
         <v>4</v>
       </c>
       <c r="L50" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -3052,11 +3054,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3064,24 +3066,24 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H51" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I51" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K51" t="n">
         <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3105,11 +3107,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3117,7 +3119,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3127,7 +3129,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -3137,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1000</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="53">
@@ -3156,11 +3158,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3178,7 +3180,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K53" t="n">
@@ -3209,11 +3211,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3231,7 +3233,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K54" t="n">
@@ -3262,11 +3264,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3284,7 +3286,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K55" t="n">
@@ -3315,11 +3317,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3327,7 +3329,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3337,7 +3339,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K56" t="n">
@@ -3347,16 +3349,16 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1000</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3366,50 +3368,48 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H57" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>9</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1765</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3431,13 +3431,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H58" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>4</v>
       </c>
       <c r="L58" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -3458,11 +3458,11 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3484,13 +3484,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H59" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="L59" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -3511,11 +3511,11 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3529,7 +3529,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3537,13 +3537,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H60" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>4</v>
       </c>
       <c r="L60" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -3564,11 +3564,11 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45294</v>
+        <v>45298</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3582,21 +3582,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3609,17 +3609,19 @@
       <c r="L61" t="n">
         <v>0</v>
       </c>
-      <c r="M61" t="n">
-        <v>1349</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3633,21 +3635,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3660,19 +3662,17 @@
       <c r="L62" t="n">
         <v>0</v>
       </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M62" t="n">
+        <v>1370</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3694,13 +3694,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3713,19 +3713,17 @@
       <c r="L63" t="n">
         <v>0</v>
       </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M63" t="n">
+        <v>1370</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3739,7 +3737,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3747,13 +3745,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3774,11 +3772,11 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3792,21 +3790,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3819,8 +3817,10 @@
       <c r="L65" t="n">
         <v>0</v>
       </c>
-      <c r="M65" t="n">
-        <v>1349</v>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3834,7 +3834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4762,15 +4762,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -4789,19 +4789,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4820,19 +4820,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4851,19 +4851,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4882,19 +4882,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45294</v>
+        <v>45300</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -4913,19 +4913,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -4944,19 +4944,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -4975,19 +4975,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -5006,19 +5006,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -5037,19 +5037,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -5068,19 +5068,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -5099,19 +5099,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45298</v>
+        <v>45294</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -5130,19 +5130,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -5161,19 +5161,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45300</v>
+        <v>45296</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -5192,19 +5192,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -5223,19 +5223,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -5258,15 +5258,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -5285,11 +5285,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -5316,11 +5316,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -5347,11 +5347,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45294</v>
+        <v>45298</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -5409,19 +5409,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5440,11 +5440,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -5471,11 +5471,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -5502,19 +5502,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -5537,15 +5537,15 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -5564,19 +5564,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -5661,15 +5661,15 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -5692,15 +5692,15 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -5723,15 +5723,15 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5785,17 +5785,48 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G63" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>40</v>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -5916,14 +5947,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D3" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -5932,34 +5963,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D4" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -5971,19 +6002,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6004,16 +6035,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="H5" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>136</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -6024,14 +6055,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -6040,16 +6071,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6060,14 +6091,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -6085,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
